--- a/biology/Médecine/Ganglion_de_Troisier/Ganglion_de_Troisier.xlsx
+++ b/biology/Médecine/Ganglion_de_Troisier/Ganglion_de_Troisier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganglion de Troisier (dénommé ganglion de Virchow en dehors de la France) est une augmentation pathologique de la taille d'un ganglion sus-clavier gauche (ganglion au-dessus de la clavicule) qui devient palpable. Il peut témoigner d'une migration d'un cancer digestif, rénal, testiculaire, pelvien et des lymphomes abdominaux. 
-Dans les pays anglophones, il est nommé d'après Rudolf Virchow (1821-1902), le médecin allemand qui décrit le premier le ganglion et son lien avec le cancer de l'estomac en 1848[1].
-Le médecin français Charles Émile Troisier décrit en 1889 que d'autres cancers de la cavité abdominale peuvent également atteindre le ganglion[2].
+Dans les pays anglophones, il est nommé d'après Rudolf Virchow (1821-1902), le médecin allemand qui décrit le premier le ganglion et son lien avec le cancer de l'estomac en 1848.
+Le médecin français Charles Émile Troisier décrit en 1889 que d'autres cancers de la cavité abdominale peuvent également atteindre le ganglion.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En effet, le canal thoracique draine tout le système lymphatique de l'abdomen et du thorax gauche. Il communique avec les ganglions sus-claviers gauches. Les ganglions sus-claviers droits drainent uniquement le bras et le thorax droit et ne seront pas envahis lors d'un cancer abdominal. 
 </t>
